--- a/pred_ohlcv/54_21/2019-10-17 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 XVG ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-628623.4735999997</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-681049.7863999997</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-726596.6000999997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-707327.6635999997</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-707307.6635999997</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-740892.7270999998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-740855.7270999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-740335.7270999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-742835.7270999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-743335.7270999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-744335.7270999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-798205.7270999998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-798205.7270999998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-798205.7270999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-802107.7074999998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1760162.93612169</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1895311.54552169</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2202464.185921689</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2204106.76862169</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1945731.72532169</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1949354.98132169</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1665062.31582169</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1670262.31582169</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1670252.31582169</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1670263.31582169</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1641202.708421689</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1641192.708421689</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1641212.708421689</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1641136.424821689</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1478178.71635766</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 XVG ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-628623.4735999997</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-681049.7863999997</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-726596.6000999997</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-707307.6635999997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-740855.7270999998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-740335.7270999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-742835.7270999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-743335.7270999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-798205.7270999998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-802107.7074999998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1760162.93612169</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1895311.54552169</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1777854.16502169</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2204106.76862169</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1945731.72532169</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1949354.98132169</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1932173.69342169</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1936533.69342169</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1936523.69342169</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1803705.246146569</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1803705.246146569</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1851929.540146569</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1557637.97733782</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1530008.44232169</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1665072.31582169</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1665062.31582169</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1670262.31582169</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1670252.31582169</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1670263.31582169</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1670463.31582169</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1641202.708421689</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1641192.708421689</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1641212.708421689</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1641136.424821689</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1478178.71635766</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
